--- a/Code/Results/Cases/Case_1_238/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_238/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.302752841045958</v>
+        <v>1.597911568692552</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3555579106371169</v>
+        <v>0.1696348709340896</v>
       </c>
       <c r="E2">
-        <v>3.518593224470294</v>
+        <v>0.9374858084730135</v>
       </c>
       <c r="F2">
-        <v>7.358510206174856</v>
+        <v>3.325952304526936</v>
       </c>
       <c r="G2">
-        <v>0.0006750041875697773</v>
+        <v>0.002461777939971148</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.459998425717373</v>
+        <v>0.5472208321561425</v>
       </c>
       <c r="M2">
-        <v>0.888926057751668</v>
+        <v>0.460722331563268</v>
       </c>
       <c r="N2">
-        <v>0.8068184336766455</v>
+        <v>1.888593783721817</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.998892403481875</v>
+        <v>1.535953024462344</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3008968281022817</v>
+        <v>0.160534539045031</v>
       </c>
       <c r="E3">
-        <v>2.981170959229559</v>
+        <v>0.81929992625399</v>
       </c>
       <c r="F3">
-        <v>6.233215451161783</v>
+        <v>3.125374034908049</v>
       </c>
       <c r="G3">
-        <v>0.0006972007224113064</v>
+        <v>0.002473307158535375</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.24034674720312</v>
+        <v>0.5006151004010917</v>
       </c>
       <c r="M3">
-        <v>0.7624761107030693</v>
+        <v>0.4342876932094626</v>
       </c>
       <c r="N3">
-        <v>0.8957768851765966</v>
+        <v>1.91742430161932</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.819134122327682</v>
+        <v>1.498905002768197</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2698081203654965</v>
+        <v>0.1551231442069252</v>
       </c>
       <c r="E4">
-        <v>2.668131875499199</v>
+        <v>0.7467512689009652</v>
       </c>
       <c r="F4">
-        <v>5.586444526932581</v>
+        <v>3.00533716137133</v>
       </c>
       <c r="G4">
-        <v>0.0007107531841143666</v>
+        <v>0.002480731608325262</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.111402628956</v>
+        <v>0.4723511345251552</v>
       </c>
       <c r="M4">
-        <v>0.6879346124148285</v>
+        <v>0.418359298421322</v>
       </c>
       <c r="N4">
-        <v>0.9517510050285489</v>
+        <v>1.935930530285514</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.747288512091671</v>
+        <v>1.484055363383305</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2576379021416386</v>
+        <v>0.1529609945352206</v>
       </c>
       <c r="E5">
-        <v>2.543865235911412</v>
+        <v>0.7171831177621755</v>
       </c>
       <c r="F5">
-        <v>5.331783194782133</v>
+        <v>2.957182940658242</v>
       </c>
       <c r="G5">
-        <v>0.0007162802660290871</v>
+        <v>0.002483844472743102</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.060042131312571</v>
+        <v>0.4609191155875862</v>
       </c>
       <c r="M5">
-        <v>0.6581876154363542</v>
+        <v>0.4119431309296928</v>
       </c>
       <c r="N5">
-        <v>0.9749082252820775</v>
+        <v>1.943674111416533</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.735435810609715</v>
+        <v>1.481604485374618</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2556440838087752</v>
+        <v>0.1526045336949551</v>
       </c>
       <c r="E6">
-        <v>2.523406248157627</v>
+        <v>0.7122728639407683</v>
       </c>
       <c r="F6">
-        <v>5.289979372154619</v>
+        <v>2.949232330325771</v>
       </c>
       <c r="G6">
-        <v>0.0007171988856151668</v>
+        <v>0.002484366650554877</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.05157769531283</v>
+        <v>0.4590259386459934</v>
       </c>
       <c r="M6">
-        <v>0.6532823577578384</v>
+        <v>0.410882210523873</v>
       </c>
       <c r="N6">
-        <v>0.9787745895261679</v>
+        <v>1.944972134181192</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.818159848480406</v>
+        <v>1.498703735414352</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2696421119533454</v>
+        <v>0.1550938121140604</v>
       </c>
       <c r="E7">
-        <v>2.666443718663118</v>
+        <v>0.7463525296841595</v>
       </c>
       <c r="F7">
-        <v>5.582976580263505</v>
+        <v>3.004684681661104</v>
       </c>
       <c r="G7">
-        <v>0.0007108276793079911</v>
+        <v>0.002480773235266058</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.110705517799943</v>
+        <v>0.4721966146229022</v>
       </c>
       <c r="M7">
-        <v>0.6875310614800014</v>
+        <v>0.4182724666446234</v>
       </c>
       <c r="N7">
-        <v>0.9520618980727509</v>
+        <v>1.93603414454065</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.196361788924662</v>
+        <v>1.576340298053481</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.336113248413767</v>
+        <v>0.1664597143287807</v>
       </c>
       <c r="E8">
-        <v>3.329115612026953</v>
+        <v>0.8967263772593981</v>
       </c>
       <c r="F8">
-        <v>6.959842004581986</v>
+        <v>3.256131795924119</v>
       </c>
       <c r="G8">
-        <v>0.000682689430601031</v>
+        <v>0.002465681799291309</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.382826663841172</v>
+        <v>0.5310763835323655</v>
       </c>
       <c r="M8">
-        <v>0.8445813455386642</v>
+        <v>0.4515440632064909</v>
       </c>
       <c r="N8">
-        <v>0.8372158020308951</v>
+        <v>1.898367596154044</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.010715287015444</v>
+        <v>1.736600457416046</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4939097182546845</v>
+        <v>0.1902068269251629</v>
       </c>
       <c r="E9">
-        <v>4.824651017767991</v>
+        <v>1.192157046046731</v>
       </c>
       <c r="F9">
-        <v>10.14907373252152</v>
+        <v>3.775031038438385</v>
       </c>
       <c r="G9">
-        <v>0.0006254177895735935</v>
+        <v>0.002438806942802193</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.982464953539562</v>
+        <v>0.6494677606027039</v>
       </c>
       <c r="M9">
-        <v>1.186422577966283</v>
+        <v>0.5192545452796651</v>
       </c>
       <c r="N9">
-        <v>0.6221433804622905</v>
+        <v>1.830886757408706</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.69312292313839</v>
+        <v>1.859418108100897</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.6442081271900122</v>
+        <v>0.2086300398603385</v>
       </c>
       <c r="E10">
-        <v>6.18359412154436</v>
+        <v>1.410139161574534</v>
       </c>
       <c r="F10">
-        <v>13.10005805330246</v>
+        <v>4.173549648084247</v>
       </c>
       <c r="G10">
-        <v>0.000578728746398154</v>
+        <v>0.002420689133679079</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.505235089244479</v>
+        <v>0.7384346858843003</v>
       </c>
       <c r="M10">
-        <v>1.478386647209376</v>
+        <v>0.5706009114448705</v>
       </c>
       <c r="N10">
-        <v>0.4685559309463039</v>
+        <v>1.785201933239453</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.039024114599101</v>
+        <v>1.916436398097972</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.7282032881595626</v>
+        <v>0.2172428534877611</v>
       </c>
       <c r="E11">
-        <v>6.924173798684023</v>
+        <v>1.509642034631241</v>
       </c>
       <c r="F11">
-        <v>14.71575421131479</v>
+        <v>4.35894916377498</v>
       </c>
       <c r="G11">
-        <v>0.0005549541653289858</v>
+        <v>0.002412793488152647</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.779805223299263</v>
+        <v>0.7793845440262714</v>
       </c>
       <c r="M11">
-        <v>1.628989156660822</v>
+        <v>0.5943291791393364</v>
       </c>
       <c r="N11">
-        <v>0.3986298673862455</v>
+        <v>1.765264775559968</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.178030688314095</v>
+        <v>1.938196229177152</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.7637176084890029</v>
+        <v>0.2205392983707952</v>
       </c>
       <c r="E12">
-        <v>7.234085486777843</v>
+        <v>1.547381482198404</v>
       </c>
       <c r="F12">
-        <v>15.39185173399324</v>
+        <v>4.429775354331582</v>
       </c>
       <c r="G12">
-        <v>0.0005453137646870344</v>
+        <v>0.002409852865876249</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.892373004153882</v>
+        <v>0.7949636715964914</v>
       </c>
       <c r="M12">
-        <v>1.690117827112715</v>
+        <v>0.6033695160008818</v>
       </c>
       <c r="N12">
-        <v>0.3719354714625783</v>
+        <v>1.757836762293406</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.147661795043859</v>
+        <v>1.933502325713334</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.7558657769387764</v>
+        <v>0.2198277691603323</v>
       </c>
       <c r="E13">
-        <v>7.165717598377341</v>
+        <v>1.539250779091731</v>
       </c>
       <c r="F13">
-        <v>15.24273328099611</v>
+        <v>4.41449365896591</v>
       </c>
       <c r="G13">
-        <v>0.0005474254848334736</v>
+        <v>0.002410483997410686</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.86766155543512</v>
+        <v>0.791605154543447</v>
       </c>
       <c r="M13">
-        <v>1.676730689436411</v>
+        <v>0.6014200461729473</v>
       </c>
       <c r="N13">
-        <v>0.3776998826296303</v>
+        <v>1.759431098874993</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.050273873892536</v>
+        <v>1.91822320205074</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.7310376428084737</v>
+        <v>0.2175133440146908</v>
       </c>
       <c r="E14">
-        <v>6.94897280321868</v>
+        <v>1.512745618919496</v>
       </c>
       <c r="F14">
-        <v>14.76986600665174</v>
+        <v>4.364763498125058</v>
       </c>
       <c r="G14">
-        <v>0.0005541762666891881</v>
+        <v>0.002412550576659521</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.788864577818259</v>
+        <v>0.7806647785166092</v>
       </c>
       <c r="M14">
-        <v>1.63392247317995</v>
+        <v>0.595071821871926</v>
       </c>
       <c r="N14">
-        <v>0.3964399669841868</v>
+        <v>1.764651226896085</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.9917927966805</v>
+        <v>1.908886304059649</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.7163774869528083</v>
+        <v>0.2161002928306743</v>
       </c>
       <c r="E15">
-        <v>6.820577773404978</v>
+        <v>1.496518565015663</v>
       </c>
       <c r="F15">
-        <v>14.48969607145983</v>
+        <v>4.334383858323974</v>
       </c>
       <c r="G15">
-        <v>0.0005582161804597589</v>
+        <v>0.002413822819588256</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.741864192315859</v>
+        <v>0.7739730051602862</v>
       </c>
       <c r="M15">
-        <v>1.608302577633367</v>
+        <v>0.5911905589096165</v>
       </c>
       <c r="N15">
-        <v>0.4078811861068226</v>
+        <v>1.767864569364569</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.671433616604645</v>
+        <v>1.855715196153199</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.6391329207609147</v>
+        <v>0.2080719760998306</v>
       </c>
       <c r="E16">
-        <v>6.138467217343049</v>
+        <v>1.403644199305432</v>
       </c>
       <c r="F16">
-        <v>13.00167867812837</v>
+        <v>4.161518475137314</v>
       </c>
       <c r="G16">
-        <v>0.0005802127926395822</v>
+        <v>0.002421212057053467</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.488258292112903</v>
+        <v>0.7357684399169102</v>
       </c>
       <c r="M16">
-        <v>1.469008610848135</v>
+        <v>0.5690578112571103</v>
       </c>
       <c r="N16">
-        <v>0.4731109825781938</v>
+        <v>1.786521898329688</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.485476898357831</v>
+        <v>1.823392671222962</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5964737639446014</v>
+        <v>0.2032074055690032</v>
       </c>
       <c r="E17">
-        <v>5.757248431550011</v>
+        <v>1.346763816891837</v>
       </c>
       <c r="F17">
-        <v>12.17131712343723</v>
+        <v>4.056543962637306</v>
       </c>
       <c r="G17">
-        <v>0.0005929215248057511</v>
+        <v>0.002425833440267437</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.343757149412937</v>
+        <v>0.7124561581429134</v>
       </c>
       <c r="M17">
-        <v>1.388891104061571</v>
+        <v>0.5555761639363936</v>
       </c>
       <c r="N17">
-        <v>0.5130155342729661</v>
+        <v>1.798184174689366</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.381615970902658</v>
+        <v>1.804909460469787</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5732854699388383</v>
+        <v>0.2004311717130349</v>
       </c>
       <c r="E18">
-        <v>5.548504474588754</v>
+        <v>1.314079223831584</v>
       </c>
       <c r="F18">
-        <v>11.71734860889489</v>
+        <v>3.996550641298711</v>
       </c>
       <c r="G18">
-        <v>0.0006000154548758532</v>
+        <v>0.002428524157395193</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.263827735058442</v>
+        <v>0.6990923574671513</v>
       </c>
       <c r="M18">
-        <v>1.344355511167464</v>
+        <v>0.547856650920366</v>
       </c>
       <c r="N18">
-        <v>0.5359798604458534</v>
+        <v>1.804971537352422</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.346923815304649</v>
+        <v>1.798669791791383</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5656375494014299</v>
+        <v>0.1994948723895504</v>
       </c>
       <c r="E19">
-        <v>5.479405477683684</v>
+        <v>1.303017871562474</v>
       </c>
       <c r="F19">
-        <v>11.56721382833396</v>
+        <v>3.976303255052358</v>
       </c>
       <c r="G19">
-        <v>0.0006023855817902186</v>
+        <v>0.002429440805789794</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.237246809349557</v>
+        <v>0.6945751947583005</v>
       </c>
       <c r="M19">
-        <v>1.329511503241804</v>
+        <v>0.5452488789745757</v>
       </c>
       <c r="N19">
-        <v>0.5437609988059289</v>
+        <v>1.807283274250747</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.504937116831854</v>
+        <v>1.826822274477649</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.6008682192318702</v>
+        <v>0.203722986151206</v>
       </c>
       <c r="E20">
-        <v>5.796682722205929</v>
+        <v>1.352815494253292</v>
       </c>
       <c r="F20">
-        <v>12.25714127137479</v>
+        <v>4.067678606331697</v>
       </c>
       <c r="G20">
-        <v>0.0005915923345051632</v>
+        <v>0.002425338113866432</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.358793613276248</v>
+        <v>0.7149331278851605</v>
       </c>
       <c r="M20">
-        <v>1.397252058136559</v>
+        <v>0.5570076974231029</v>
       </c>
       <c r="N20">
-        <v>0.5087673024130752</v>
+        <v>1.796934472811735</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.078625689939372</v>
+        <v>1.922706459071549</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.7382113779370911</v>
+        <v>0.2181921850072399</v>
       </c>
       <c r="E21">
-        <v>7.011687280736226</v>
+        <v>1.520529114648241</v>
       </c>
       <c r="F21">
-        <v>14.906703818712</v>
+        <v>4.379353411553154</v>
       </c>
       <c r="G21">
-        <v>0.0005522141048943065</v>
+        <v>0.002411942238595099</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.811734963048565</v>
+        <v>0.7838762411394953</v>
       </c>
       <c r="M21">
-        <v>1.64636607326301</v>
+        <v>0.5969349440732259</v>
       </c>
       <c r="N21">
-        <v>0.390944105594853</v>
+        <v>1.763114642409707</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.504224186590534</v>
+        <v>1.986354525974605</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.8516377604584591</v>
+        <v>0.2278531916422537</v>
       </c>
       <c r="E22">
-        <v>7.994324736705067</v>
+        <v>1.630493891426539</v>
       </c>
       <c r="F22">
-        <v>17.04762196618543</v>
+        <v>4.586675127360479</v>
       </c>
       <c r="G22">
-        <v>0.0005223806437794764</v>
+        <v>0.002403474306274335</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3.162401014997158</v>
+        <v>0.8293577260946279</v>
       </c>
       <c r="M22">
-        <v>1.83516153435599</v>
+        <v>0.6233508605637468</v>
       </c>
       <c r="N22">
-        <v>0.3123641460358865</v>
+        <v>1.741721232774054</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.270620215576798</v>
+        <v>1.952293400555504</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.7879912993067819</v>
+        <v>0.2226776727271158</v>
       </c>
       <c r="E23">
-        <v>7.444927808156052</v>
+        <v>1.571767558251025</v>
       </c>
       <c r="F23">
-        <v>15.85155579509058</v>
+        <v>4.475682442917048</v>
       </c>
       <c r="G23">
-        <v>0.0005388537024740648</v>
+        <v>0.002407967703948126</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.968142670894338</v>
+        <v>0.8050434848280759</v>
       </c>
       <c r="M23">
-        <v>1.731049580112057</v>
+        <v>0.6092222340152631</v>
       </c>
       <c r="N23">
-        <v>0.3545919056124914</v>
+        <v>1.753074270050238</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.49612983764672</v>
+        <v>1.825271441353152</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5988774097711485</v>
+        <v>0.2034898285226063</v>
       </c>
       <c r="E24">
-        <v>5.77882272809569</v>
+        <v>1.350079479719398</v>
       </c>
       <c r="F24">
-        <v>12.21826875082587</v>
+        <v>4.062643521185635</v>
       </c>
       <c r="G24">
-        <v>0.0005921939068232705</v>
+        <v>0.002425561945386946</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.351986029761861</v>
+        <v>0.7138131694606784</v>
       </c>
       <c r="M24">
-        <v>1.393467414953946</v>
+        <v>0.5563604038740095</v>
       </c>
       <c r="N24">
-        <v>0.5106878454286443</v>
+        <v>1.797499205877656</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.779463767136804</v>
+        <v>1.69236870692049</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4469268403428259</v>
+        <v>0.183617615068016</v>
       </c>
       <c r="E25">
-        <v>4.388336038291072</v>
+        <v>1.112116246639232</v>
       </c>
       <c r="F25">
-        <v>9.209955396019211</v>
+        <v>3.631734593082939</v>
       </c>
       <c r="G25">
-        <v>0.0006413927496139778</v>
+        <v>0.002445789323335357</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.809908631298555</v>
+        <v>0.6171060244535624</v>
       </c>
       <c r="M25">
-        <v>1.088733730697854</v>
+        <v>0.5006633674261138</v>
       </c>
       <c r="N25">
-        <v>0.6793579091773454</v>
+        <v>1.848458603566895</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_238/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_238/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.597911568692552</v>
+        <v>2.302752841046015</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1696348709340896</v>
+        <v>0.3555579106371312</v>
       </c>
       <c r="E2">
-        <v>0.9374858084730135</v>
+        <v>3.518593224470209</v>
       </c>
       <c r="F2">
-        <v>3.325952304526936</v>
+        <v>7.358510206174827</v>
       </c>
       <c r="G2">
-        <v>0.002461777939971148</v>
+        <v>0.0006750041875709808</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5472208321561425</v>
+        <v>1.459998425717259</v>
       </c>
       <c r="M2">
-        <v>0.460722331563268</v>
+        <v>0.8889260577516609</v>
       </c>
       <c r="N2">
-        <v>1.888593783721817</v>
+        <v>0.8068184336765976</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.535953024462344</v>
+        <v>1.998892403481818</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.160534539045031</v>
+        <v>0.3008968281022675</v>
       </c>
       <c r="E3">
-        <v>0.81929992625399</v>
+        <v>2.981170959229644</v>
       </c>
       <c r="F3">
-        <v>3.125374034908049</v>
+        <v>6.23321545116184</v>
       </c>
       <c r="G3">
-        <v>0.002473307158535375</v>
+        <v>0.0006972007223555659</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5006151004010917</v>
+        <v>1.240346747203034</v>
       </c>
       <c r="M3">
-        <v>0.4342876932094626</v>
+        <v>0.7624761107030693</v>
       </c>
       <c r="N3">
-        <v>1.91742430161932</v>
+        <v>0.895776885176593</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.498905002768197</v>
+        <v>1.819134122327711</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1551231442069252</v>
+        <v>0.2698081203654823</v>
       </c>
       <c r="E4">
-        <v>0.7467512689009652</v>
+        <v>2.668131875499228</v>
       </c>
       <c r="F4">
-        <v>3.00533716137133</v>
+        <v>5.58644452693261</v>
       </c>
       <c r="G4">
-        <v>0.002480731608325262</v>
+        <v>0.000710753184163505</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4723511345251552</v>
+        <v>1.111402628956057</v>
       </c>
       <c r="M4">
-        <v>0.418359298421322</v>
+        <v>0.6879346124148356</v>
       </c>
       <c r="N4">
-        <v>1.935930530285514</v>
+        <v>0.9517510050285347</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.484055363383305</v>
+        <v>1.747288512091558</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1529609945352206</v>
+        <v>0.2576379021418376</v>
       </c>
       <c r="E5">
-        <v>0.7171831177621755</v>
+        <v>2.543865235911511</v>
       </c>
       <c r="F5">
-        <v>2.957182940658242</v>
+        <v>5.331783194782162</v>
       </c>
       <c r="G5">
-        <v>0.002483844472743102</v>
+        <v>0.0007162802660548445</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4609191155875862</v>
+        <v>1.060042131312571</v>
       </c>
       <c r="M5">
-        <v>0.4119431309296928</v>
+        <v>0.6581876154363542</v>
       </c>
       <c r="N5">
-        <v>1.943674111416533</v>
+        <v>0.9749082252820118</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.481604485374618</v>
+        <v>1.735435810609715</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1526045336949551</v>
+        <v>0.2556440838082352</v>
       </c>
       <c r="E6">
-        <v>0.7122728639407683</v>
+        <v>2.523406248157599</v>
       </c>
       <c r="F6">
-        <v>2.949232330325771</v>
+        <v>5.289979372154647</v>
       </c>
       <c r="G6">
-        <v>0.002484366650554877</v>
+        <v>0.0007171988856153138</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4590259386459934</v>
+        <v>1.051577695312744</v>
       </c>
       <c r="M6">
-        <v>0.410882210523873</v>
+        <v>0.6532823577578313</v>
       </c>
       <c r="N6">
-        <v>1.944972134181192</v>
+        <v>0.9787745895261013</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.498703735414352</v>
+        <v>1.818159848480605</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1550938121140604</v>
+        <v>0.2696421119533312</v>
       </c>
       <c r="E7">
-        <v>0.7463525296841595</v>
+        <v>2.666443718663132</v>
       </c>
       <c r="F7">
-        <v>3.004684681661104</v>
+        <v>5.58297658026359</v>
       </c>
       <c r="G7">
-        <v>0.002480773235266058</v>
+        <v>0.0007108276794793409</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4721966146229022</v>
+        <v>1.1107055178</v>
       </c>
       <c r="M7">
-        <v>0.4182724666446234</v>
+        <v>0.687531061479973</v>
       </c>
       <c r="N7">
-        <v>1.93603414454065</v>
+        <v>0.952061898072726</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.576340298053481</v>
+        <v>2.196361788924492</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1664597143287807</v>
+        <v>0.3361132484139802</v>
       </c>
       <c r="E8">
-        <v>0.8967263772593981</v>
+        <v>3.329115612026925</v>
       </c>
       <c r="F8">
-        <v>3.256131795924119</v>
+        <v>6.959842004581958</v>
       </c>
       <c r="G8">
-        <v>0.002465681799291309</v>
+        <v>0.0006826894305475765</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5310763835323655</v>
+        <v>1.382826663841143</v>
       </c>
       <c r="M8">
-        <v>0.4515440632064909</v>
+        <v>0.8445813455386713</v>
       </c>
       <c r="N8">
-        <v>1.898367596154044</v>
+        <v>0.837215802030824</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.736600457416046</v>
+        <v>3.010715287015444</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1902068269251629</v>
+        <v>0.4939097182546561</v>
       </c>
       <c r="E9">
-        <v>1.192157046046731</v>
+        <v>4.824651017767991</v>
       </c>
       <c r="F9">
-        <v>3.775031038438385</v>
+        <v>10.14907373252157</v>
       </c>
       <c r="G9">
-        <v>0.002438806942802193</v>
+        <v>0.0006254177895716518</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6494677606027039</v>
+        <v>1.982464953539562</v>
       </c>
       <c r="M9">
-        <v>0.5192545452796651</v>
+        <v>1.186422577966283</v>
       </c>
       <c r="N9">
-        <v>1.830886757408706</v>
+        <v>0.6221433804622811</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.859418108100897</v>
+        <v>3.693122923138333</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2086300398603385</v>
+        <v>0.6442081271904385</v>
       </c>
       <c r="E10">
-        <v>1.410139161574534</v>
+        <v>6.183594121544388</v>
       </c>
       <c r="F10">
-        <v>4.173549648084247</v>
+        <v>13.10005805330258</v>
       </c>
       <c r="G10">
-        <v>0.002420689133679079</v>
+        <v>0.0005787287463747048</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7384346858843003</v>
+        <v>2.505235089244565</v>
       </c>
       <c r="M10">
-        <v>0.5706009114448705</v>
+        <v>1.478386647209362</v>
       </c>
       <c r="N10">
-        <v>1.785201933239453</v>
+        <v>0.4685559309463527</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.916436398097972</v>
+        <v>4.039024114599101</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2172428534877611</v>
+        <v>0.7282032881597047</v>
       </c>
       <c r="E11">
-        <v>1.509642034631241</v>
+        <v>6.924173798684023</v>
       </c>
       <c r="F11">
-        <v>4.35894916377498</v>
+        <v>14.7157542113149</v>
       </c>
       <c r="G11">
-        <v>0.002412793488152647</v>
+        <v>0.0005549541653243009</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.7793845440262714</v>
+        <v>2.779805223299206</v>
       </c>
       <c r="M11">
-        <v>0.5943291791393364</v>
+        <v>1.628989156660808</v>
       </c>
       <c r="N11">
-        <v>1.765264775559968</v>
+        <v>0.3986298673862261</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.938196229177152</v>
+        <v>4.178030688314209</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2205392983707952</v>
+        <v>0.7637176084892587</v>
       </c>
       <c r="E12">
-        <v>1.547381482198404</v>
+        <v>7.234085486777758</v>
       </c>
       <c r="F12">
-        <v>4.429775354331582</v>
+        <v>15.39185173399301</v>
       </c>
       <c r="G12">
-        <v>0.002409852865876249</v>
+        <v>0.0005453137647821568</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.7949636715964914</v>
+        <v>2.892373004154024</v>
       </c>
       <c r="M12">
-        <v>0.6033695160008818</v>
+        <v>1.690117827112701</v>
       </c>
       <c r="N12">
-        <v>1.757836762293406</v>
+        <v>0.3719354714625325</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.933502325713334</v>
+        <v>4.147661795043689</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2198277691603323</v>
+        <v>0.755865776938208</v>
       </c>
       <c r="E13">
-        <v>1.539250779091731</v>
+        <v>7.165717598377199</v>
       </c>
       <c r="F13">
-        <v>4.41449365896591</v>
+        <v>15.24273328099588</v>
       </c>
       <c r="G13">
-        <v>0.002410483997410686</v>
+        <v>0.000547425484750236</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.791605154543447</v>
+        <v>2.86766155543512</v>
       </c>
       <c r="M13">
-        <v>0.6014200461729473</v>
+        <v>1.676730689436411</v>
       </c>
       <c r="N13">
-        <v>1.759431098874993</v>
+        <v>0.3776998826297074</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.91822320205074</v>
+        <v>4.050273873892593</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2175133440146908</v>
+        <v>0.7310376428085306</v>
       </c>
       <c r="E14">
-        <v>1.512745618919496</v>
+        <v>6.948972803218709</v>
       </c>
       <c r="F14">
-        <v>4.364763498125058</v>
+        <v>14.76986600665163</v>
       </c>
       <c r="G14">
-        <v>0.002412550576659521</v>
+        <v>0.0005541762666000872</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.7806647785166092</v>
+        <v>2.788864577818174</v>
       </c>
       <c r="M14">
-        <v>0.595071821871926</v>
+        <v>1.63392247317995</v>
       </c>
       <c r="N14">
-        <v>1.764651226896085</v>
+        <v>0.3964399669841403</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.908886304059649</v>
+        <v>3.991792796680443</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2161002928306743</v>
+        <v>0.7163774869525525</v>
       </c>
       <c r="E15">
-        <v>1.496518565015663</v>
+        <v>6.820577773405006</v>
       </c>
       <c r="F15">
-        <v>4.334383858323974</v>
+        <v>14.48969607146</v>
       </c>
       <c r="G15">
-        <v>0.002413822819588256</v>
+        <v>0.0005582161804560044</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.7739730051602862</v>
+        <v>2.74186419231583</v>
       </c>
       <c r="M15">
-        <v>0.5911905589096165</v>
+        <v>1.608302577633353</v>
       </c>
       <c r="N15">
-        <v>1.767864569364569</v>
+        <v>0.4078811861068106</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.855715196153199</v>
+        <v>3.671433616604531</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2080719760998306</v>
+        <v>0.6391329207604883</v>
       </c>
       <c r="E16">
-        <v>1.403644199305432</v>
+        <v>6.13846721734302</v>
       </c>
       <c r="F16">
-        <v>4.161518475137314</v>
+        <v>13.00167867812837</v>
       </c>
       <c r="G16">
-        <v>0.002421212057053467</v>
+        <v>0.000580212792522306</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7357684399169102</v>
+        <v>2.48825829211296</v>
       </c>
       <c r="M16">
-        <v>0.5690578112571103</v>
+        <v>1.469008610848107</v>
       </c>
       <c r="N16">
-        <v>1.786521898329688</v>
+        <v>0.4731109825781923</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.823392671222962</v>
+        <v>3.485476898357831</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2032074055690032</v>
+        <v>0.5964737639450846</v>
       </c>
       <c r="E17">
-        <v>1.346763816891837</v>
+        <v>5.757248431549954</v>
       </c>
       <c r="F17">
-        <v>4.056543962637306</v>
+        <v>12.17131712343718</v>
       </c>
       <c r="G17">
-        <v>0.002425833440267437</v>
+        <v>0.0005929215248138291</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.7124561581429134</v>
+        <v>2.34375714941288</v>
       </c>
       <c r="M17">
-        <v>0.5555761639363936</v>
+        <v>1.388891104061571</v>
       </c>
       <c r="N17">
-        <v>1.798184174689366</v>
+        <v>0.5130155342729252</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.804909460469787</v>
+        <v>3.381615970902601</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2004311717130349</v>
+        <v>0.573285469939492</v>
       </c>
       <c r="E18">
-        <v>1.314079223831584</v>
+        <v>5.548504474588725</v>
       </c>
       <c r="F18">
-        <v>3.996550641298711</v>
+        <v>11.71734860889481</v>
       </c>
       <c r="G18">
-        <v>0.002428524157395193</v>
+        <v>0.0006000154547657497</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6990923574671513</v>
+        <v>2.263827735058413</v>
       </c>
       <c r="M18">
-        <v>0.547856650920366</v>
+        <v>1.344355511167478</v>
       </c>
       <c r="N18">
-        <v>1.804971537352422</v>
+        <v>0.5359798604458095</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.798669791791383</v>
+        <v>3.346923815304478</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1994948723895504</v>
+        <v>0.5656375494012309</v>
       </c>
       <c r="E19">
-        <v>1.303017871562474</v>
+        <v>5.479405477683656</v>
       </c>
       <c r="F19">
-        <v>3.976303255052358</v>
+        <v>11.56721382833388</v>
       </c>
       <c r="G19">
-        <v>0.002429440805789794</v>
+        <v>0.0006023855817939994</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6945751947583005</v>
+        <v>2.237246809349472</v>
       </c>
       <c r="M19">
-        <v>0.5452488789745757</v>
+        <v>1.329511503241804</v>
       </c>
       <c r="N19">
-        <v>1.807283274250747</v>
+        <v>0.5437609988059431</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.826822274477649</v>
+        <v>3.504937116831968</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.203722986151206</v>
+        <v>0.6008682192318702</v>
       </c>
       <c r="E20">
-        <v>1.352815494253292</v>
+        <v>5.796682722205873</v>
       </c>
       <c r="F20">
-        <v>4.067678606331697</v>
+        <v>12.25714127137462</v>
       </c>
       <c r="G20">
-        <v>0.002425338113866432</v>
+        <v>0.000591592334643648</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.7149331278851605</v>
+        <v>2.358793613276248</v>
       </c>
       <c r="M20">
-        <v>0.5570076974231029</v>
+        <v>1.397252058136559</v>
       </c>
       <c r="N20">
-        <v>1.796934472811735</v>
+        <v>0.5087673024130965</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.922706459071549</v>
+        <v>4.078625689939372</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2181921850072399</v>
+        <v>0.7382113779368353</v>
       </c>
       <c r="E21">
-        <v>1.520529114648241</v>
+        <v>7.011687280736197</v>
       </c>
       <c r="F21">
-        <v>4.379353411553154</v>
+        <v>14.90670381871189</v>
       </c>
       <c r="G21">
-        <v>0.002411942238595099</v>
+        <v>0.0005522141048632719</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.7838762411394953</v>
+        <v>2.811734963048565</v>
       </c>
       <c r="M21">
-        <v>0.5969349440732259</v>
+        <v>1.64636607326301</v>
       </c>
       <c r="N21">
-        <v>1.763114642409707</v>
+        <v>0.3909441055948548</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.986354525974605</v>
+        <v>4.504224186590477</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2278531916422537</v>
+        <v>0.8516377604585443</v>
       </c>
       <c r="E22">
-        <v>1.630493891426539</v>
+        <v>7.994324736705011</v>
       </c>
       <c r="F22">
-        <v>4.586675127360479</v>
+        <v>17.04762196618537</v>
       </c>
       <c r="G22">
-        <v>0.002403474306274335</v>
+        <v>0.0005223806437813508</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.8293577260946279</v>
+        <v>3.162401014997158</v>
       </c>
       <c r="M22">
-        <v>0.6233508605637468</v>
+        <v>1.835161534355976</v>
       </c>
       <c r="N22">
-        <v>1.741721232774054</v>
+        <v>0.3123641460358347</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.952293400555504</v>
+        <v>4.270620215576855</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2226776727271158</v>
+        <v>0.787991299306583</v>
       </c>
       <c r="E23">
-        <v>1.571767558251025</v>
+        <v>7.444927808156109</v>
       </c>
       <c r="F23">
-        <v>4.475682442917048</v>
+        <v>15.85155579509058</v>
       </c>
       <c r="G23">
-        <v>0.002407967703948126</v>
+        <v>0.0005388537024758412</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.8050434848280759</v>
+        <v>2.968142670894366</v>
       </c>
       <c r="M23">
-        <v>0.6092222340152631</v>
+        <v>1.731049580112071</v>
       </c>
       <c r="N23">
-        <v>1.753074270050238</v>
+        <v>0.3545919056124462</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.825271441353152</v>
+        <v>3.496129837646606</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2034898285226063</v>
+        <v>0.598877409771319</v>
       </c>
       <c r="E24">
-        <v>1.350079479719398</v>
+        <v>5.778822728095776</v>
       </c>
       <c r="F24">
-        <v>4.062643521185635</v>
+        <v>12.21826875082593</v>
       </c>
       <c r="G24">
-        <v>0.002425561945386946</v>
+        <v>0.0005921939069319963</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.7138131694606784</v>
+        <v>2.351986029761889</v>
       </c>
       <c r="M24">
-        <v>0.5563604038740095</v>
+        <v>1.39346741495396</v>
       </c>
       <c r="N24">
-        <v>1.797499205877656</v>
+        <v>0.5106878454285702</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.69236870692049</v>
+        <v>2.77946376713669</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.183617615068016</v>
+        <v>0.4469268403424564</v>
       </c>
       <c r="E25">
-        <v>1.112116246639232</v>
+        <v>4.388336038291101</v>
       </c>
       <c r="F25">
-        <v>3.631734593082939</v>
+        <v>9.209955396019154</v>
       </c>
       <c r="G25">
-        <v>0.002445789323335357</v>
+        <v>0.0006413927496126521</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.6171060244535624</v>
+        <v>1.809908631298583</v>
       </c>
       <c r="M25">
-        <v>0.5006633674261138</v>
+        <v>1.088733730697847</v>
       </c>
       <c r="N25">
-        <v>1.848458603566895</v>
+        <v>0.6793579091773552</v>
       </c>
       <c r="O25">
         <v>0</v>
